--- a/VentasDispSeg/VentasDispSeg.xlsx
+++ b/VentasDispSeg/VentasDispSeg.xlsx
@@ -8,12 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54113\[Nahue] cursos\DB\VentasDispSeg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F84442D-9047-4B65-8F2F-31F740B52F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDA33FA-27B8-4DCA-B360-F8339EAB13F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ECEE5321-E995-409C-AD4A-33BFC02343DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Borrador" sheetId="1" r:id="rId1"/>
+    <sheet name="ventas" sheetId="18" r:id="rId2"/>
+    <sheet name="clientes" sheetId="2" r:id="rId3"/>
+    <sheet name="estados_cliente" sheetId="3" r:id="rId4"/>
+    <sheet name="clasificaciones_persona" sheetId="4" r:id="rId5"/>
+    <sheet name="detalles_iva" sheetId="5" r:id="rId6"/>
+    <sheet name="detalles_iibb" sheetId="6" r:id="rId7"/>
+    <sheet name="domicilios_facturacion" sheetId="7" r:id="rId8"/>
+    <sheet name="domicilios_instalacion" sheetId="10" r:id="rId9"/>
+    <sheet name="direcciones" sheetId="11" r:id="rId10"/>
+    <sheet name="provincias" sheetId="12" r:id="rId11"/>
+    <sheet name="paises" sheetId="13" r:id="rId12"/>
+    <sheet name="vendedores" sheetId="14" r:id="rId13"/>
+    <sheet name="pedidos" sheetId="15" r:id="rId14"/>
+    <sheet name="productos" sheetId="16" r:id="rId15"/>
+    <sheet name="medios_de_pago" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="121">
   <si>
     <t>Física</t>
   </si>
@@ -266,9 +281,6 @@
     <t>alto_riesgo</t>
   </si>
   <si>
-    <t>tiempo_actividad</t>
-  </si>
-  <si>
     <t>condicion</t>
   </si>
   <si>
@@ -341,18 +353,12 @@
     <t>precio_unitario</t>
   </si>
   <si>
-    <t>subtotal</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
     <t>medio_depago_ id</t>
   </si>
   <si>
-    <t>Resp. inscripto</t>
-  </si>
-  <si>
     <t>medio_depago_id</t>
   </si>
   <si>
@@ -375,14 +381,48 @@
   </si>
   <si>
     <t>cant_stock</t>
+  </si>
+  <si>
+    <t>inicio_actividad</t>
+  </si>
+  <si>
+    <t>fin_actividad</t>
+  </si>
+  <si>
+    <t>1e0e4b1866249514aacea18908974e37e29c3d622016c6af42bf4ace95c54b24</t>
+  </si>
+  <si>
+    <t>2b4ed9f985025206e2532f8cf5314ae4a7570342dde6e3c37b50c5e7838d1b1c</t>
+  </si>
+  <si>
+    <t>aa909044cb79552d00296dea13cdf49cb57bce3275e29d23fafabeeb263aff1e</t>
+  </si>
+  <si>
+    <t>impuestos</t>
+  </si>
+  <si>
+    <t>base_imponible</t>
+  </si>
+  <si>
+    <t>descuento</t>
+  </si>
+  <si>
+    <t>Responsable inscripto</t>
+  </si>
+  <si>
+    <t>pais</t>
+  </si>
+  <si>
+    <t>provincias_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="d\-m\-yyyy\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -438,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,6 +506,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C74623B-2928-4BA5-83D2-B62A00502D96}">
-  <dimension ref="A1:BW70"/>
+  <dimension ref="A1:CC70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,241 +838,260 @@
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="66.7109375" customWidth="1"/>
     <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" customWidth="1"/>
-    <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" customWidth="1"/>
-    <col min="21" max="21" width="21.42578125" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="19.5703125" customWidth="1"/>
-    <col min="27" max="27" width="18" customWidth="1"/>
-    <col min="30" max="30" width="25.42578125" customWidth="1"/>
-    <col min="33" max="33" width="14" customWidth="1"/>
-    <col min="34" max="34" width="17.140625" customWidth="1"/>
-    <col min="36" max="36" width="14.7109375" customWidth="1"/>
-    <col min="37" max="37" width="13" customWidth="1"/>
-    <col min="39" max="39" width="25" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="14" width="14" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" customWidth="1"/>
+    <col min="19" max="19" width="26" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" customWidth="1"/>
+    <col min="27" max="27" width="19.5703125" customWidth="1"/>
+    <col min="28" max="28" width="22.5703125" customWidth="1"/>
+    <col min="30" max="30" width="18" customWidth="1"/>
+    <col min="33" max="33" width="25.42578125" customWidth="1"/>
+    <col min="36" max="36" width="14" customWidth="1"/>
+    <col min="37" max="37" width="25.5703125" customWidth="1"/>
+    <col min="39" max="39" width="14.7109375" customWidth="1"/>
     <col min="40" max="40" width="13" customWidth="1"/>
-    <col min="42" max="42" width="23.28515625" customWidth="1"/>
+    <col min="42" max="42" width="25" customWidth="1"/>
     <col min="43" max="43" width="13" customWidth="1"/>
-    <col min="45" max="45" width="12.42578125" customWidth="1"/>
-    <col min="47" max="47" width="30.7109375" customWidth="1"/>
-    <col min="52" max="52" width="26.85546875" customWidth="1"/>
-    <col min="53" max="53" width="23.5703125" customWidth="1"/>
-    <col min="54" max="54" width="14.42578125" customWidth="1"/>
-    <col min="56" max="56" width="19.42578125" customWidth="1"/>
-    <col min="62" max="62" width="20.5703125" customWidth="1"/>
-    <col min="64" max="64" width="14.140625" customWidth="1"/>
-    <col min="65" max="65" width="14" customWidth="1"/>
-    <col min="66" max="66" width="12.42578125" customWidth="1"/>
-    <col min="69" max="69" width="12.85546875" customWidth="1"/>
-    <col min="70" max="70" width="26.85546875" customWidth="1"/>
-    <col min="71" max="71" width="15.42578125" customWidth="1"/>
-    <col min="72" max="72" width="14.7109375" customWidth="1"/>
-    <col min="74" max="74" width="18.5703125" customWidth="1"/>
-    <col min="75" max="75" width="13.85546875" customWidth="1"/>
+    <col min="45" max="45" width="23.28515625" customWidth="1"/>
+    <col min="46" max="46" width="13" customWidth="1"/>
+    <col min="48" max="48" width="12.42578125" customWidth="1"/>
+    <col min="50" max="50" width="30.7109375" customWidth="1"/>
+    <col min="55" max="55" width="26.85546875" customWidth="1"/>
+    <col min="56" max="56" width="23.5703125" customWidth="1"/>
+    <col min="57" max="57" width="14.42578125" customWidth="1"/>
+    <col min="59" max="59" width="15.42578125" customWidth="1"/>
+    <col min="60" max="60" width="29.140625" customWidth="1"/>
+    <col min="62" max="62" width="19.42578125" customWidth="1"/>
+    <col min="68" max="68" width="20.5703125" customWidth="1"/>
+    <col min="70" max="70" width="14.140625" customWidth="1"/>
+    <col min="71" max="71" width="14" customWidth="1"/>
+    <col min="72" max="72" width="12.42578125" customWidth="1"/>
+    <col min="75" max="75" width="12.85546875" customWidth="1"/>
+    <col min="76" max="76" width="26.85546875" customWidth="1"/>
+    <col min="77" max="77" width="15.42578125" customWidth="1"/>
+    <col min="78" max="78" width="14.7109375" customWidth="1"/>
+    <col min="80" max="80" width="18.5703125" customWidth="1"/>
+    <col min="81" max="81" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="1" t="s">
-        <v>81</v>
+      <c r="AA1" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AC1" s="4"/>
       <c r="AD1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AF1" s="4"/>
       <c r="AG1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AK1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ1"/>
+      <c r="BR1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BT1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BU1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BE1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK1"/>
-      <c r="BL1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1060,41 +1122,40 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="3" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AD2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AG2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AG2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="AJ2" s="3">
         <v>1</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="AM2" s="3">
         <v>1</v>
       </c>
-      <c r="AN2" s="3">
-        <v>1</v>
+      <c r="AN2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="AP2" s="3">
         <v>1</v>
@@ -1108,52 +1169,60 @@
       <c r="AT2" s="3">
         <v>1</v>
       </c>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
+      <c r="AV2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>1</v>
+      </c>
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
       <c r="BA2" s="3"/>
-      <c r="BB2" s="3" t="s">
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BJ2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BG2" s="3">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3">
-        <v>1</v>
-      </c>
-      <c r="BR2" s="3" t="s">
+      <c r="BM2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="8">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BS2" s="3">
+      <c r="BY2" s="3">
         <v>200</v>
       </c>
-      <c r="BT2" s="3" t="s">
+      <c r="BZ2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="BV2" s="3">
-        <v>1</v>
-      </c>
-      <c r="BW2" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB2" s="3">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1184,41 +1253,40 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3">
-        <v>2</v>
-      </c>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="3" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AD3" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="AG3" s="3">
         <v>2</v>
       </c>
       <c r="AH3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="3">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AM3" s="3">
         <v>2</v>
       </c>
-      <c r="AN3" s="3">
-        <v>2</v>
+      <c r="AN3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AP3" s="3">
         <v>2</v>
@@ -1232,46 +1300,52 @@
       <c r="AT3" s="3">
         <v>2</v>
       </c>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
+      <c r="AV3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>2</v>
+      </c>
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
       <c r="BA3" s="3"/>
-      <c r="BB3" s="3" t="s">
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BG3" s="3">
-        <v>2</v>
-      </c>
-      <c r="BL3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BM3" s="8"/>
-      <c r="BN3" s="3"/>
-      <c r="BO3" s="3"/>
-      <c r="BP3" s="3"/>
-      <c r="BQ3" s="3">
-        <v>2</v>
-      </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BM3" s="3">
+        <v>2</v>
+      </c>
+      <c r="BR3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BS3" s="8"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3">
+        <v>2</v>
+      </c>
+      <c r="BX3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BS3" s="3">
+      <c r="BY3" s="3">
         <v>175</v>
       </c>
-      <c r="BT3" s="3" t="s">
+      <c r="BZ3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="BV3" s="3">
-        <v>2</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB3" s="3">
+        <v>2</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1288,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -1302,17 +1376,16 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3">
-        <v>3</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>4</v>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+      <c r="R4" s="3">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
       </c>
       <c r="AJ4" s="3">
         <v>3</v>
@@ -1323,61 +1396,67 @@
       <c r="AM4" s="3">
         <v>3</v>
       </c>
-      <c r="AN4" s="3">
-        <v>2</v>
+      <c r="AN4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AP4" s="3">
         <v>3</v>
       </c>
       <c r="AQ4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS4" s="3">
         <v>3</v>
       </c>
       <c r="AT4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>2</v>
+      </c>
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
       <c r="AZ4" s="3"/>
       <c r="BA4" s="3"/>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BG4" s="3">
-        <v>3</v>
-      </c>
-      <c r="BL4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BM4" s="8"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3">
-        <v>3</v>
-      </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BM4" s="3">
+        <v>3</v>
+      </c>
+      <c r="BR4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3">
+        <v>3</v>
+      </c>
+      <c r="BX4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="BS4" s="3">
+      <c r="BY4" s="3">
         <v>150</v>
       </c>
-      <c r="BT4" s="3" t="s">
+      <c r="BZ4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="BV4" s="3">
-        <v>3</v>
-      </c>
-      <c r="BW4" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB4" s="3">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1394,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -1408,72 +1487,77 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
         <v>4</v>
       </c>
-      <c r="P5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="3">
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="3">
         <v>4</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>4</v>
-      </c>
-      <c r="AN5" s="3">
-        <v>1</v>
       </c>
       <c r="AP5" s="3">
         <v>4</v>
       </c>
       <c r="AQ5" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS5" s="3">
         <v>4</v>
       </c>
       <c r="AT5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>1</v>
+      </c>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
       <c r="AZ5" s="3"/>
       <c r="BA5" s="3"/>
-      <c r="BB5" s="3" t="s">
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BG5" s="3">
+      <c r="BM5" s="3">
         <v>4</v>
       </c>
-      <c r="BL5" s="8">
+      <c r="BR5" s="8">
         <v>4</v>
       </c>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="3"/>
-      <c r="BO5" s="3"/>
-      <c r="BP5" s="3"/>
-      <c r="BQ5" s="3">
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="3"/>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3">
         <v>4</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BX5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BS5" s="3">
+      <c r="BY5" s="3">
         <v>140</v>
       </c>
-      <c r="BT5" s="3" t="s">
+      <c r="BZ5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="BV5" s="3"/>
-      <c r="BW5" s="3"/>
-    </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1490,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -1504,72 +1588,83 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
         <v>5</v>
       </c>
-      <c r="P6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="3">
+      <c r="R6" s="3">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>45128.454039351855</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>45149.375</v>
+      </c>
+      <c r="AJ6" s="3">
         <v>5</v>
       </c>
-      <c r="AH6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>4</v>
+      <c r="AK6" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AP6" s="3">
         <v>5</v>
       </c>
       <c r="AQ6" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS6" s="3">
         <v>5</v>
       </c>
       <c r="AT6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>5</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>1</v>
+      </c>
       <c r="AX6" s="3"/>
       <c r="AY6" s="3"/>
       <c r="AZ6" s="3"/>
       <c r="BA6" s="3"/>
-      <c r="BB6" s="3" t="s">
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BG6" s="3">
+      <c r="BM6" s="3">
         <v>5</v>
       </c>
-      <c r="BL6" s="8">
+      <c r="BR6" s="8">
         <v>5</v>
       </c>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="3"/>
-      <c r="BO6" s="3"/>
-      <c r="BP6" s="3"/>
-      <c r="BQ6" s="3">
+      <c r="BS6" s="8"/>
+      <c r="BT6" s="3"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3">
         <v>5</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="BX6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BS6" s="3">
+      <c r="BY6" s="3">
         <v>250</v>
       </c>
-      <c r="BT6" s="3" t="s">
+      <c r="BZ6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="BV6" s="3"/>
-      <c r="BW6" s="3"/>
-    </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1586,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -1600,59 +1695,64 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
         <v>6</v>
       </c>
-      <c r="P7" s="3">
-        <v>2</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>6</v>
+      <c r="R7" s="3">
+        <v>2</v>
+      </c>
+      <c r="S7" s="3">
+        <v>2</v>
       </c>
       <c r="AP7" s="3">
         <v>6</v>
       </c>
       <c r="AQ7" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS7" s="3">
         <v>6</v>
       </c>
       <c r="AT7" s="3">
-        <v>3</v>
-      </c>
-      <c r="BB7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>6</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>3</v>
+      </c>
+      <c r="BE7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BG7" s="3">
+      <c r="BM7" s="3">
         <v>6</v>
       </c>
-      <c r="BL7" s="8">
+      <c r="BR7" s="8">
         <v>6</v>
       </c>
-      <c r="BM7" s="8"/>
-      <c r="BN7" s="3"/>
-      <c r="BO7" s="3"/>
-      <c r="BP7" s="3"/>
-      <c r="BQ7" s="3">
+      <c r="BS7" s="8"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3">
         <v>6</v>
       </c>
-      <c r="BR7" s="3" t="s">
+      <c r="BX7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BS7" s="3">
+      <c r="BY7" s="3">
         <v>190</v>
       </c>
-      <c r="BT7" s="3" t="s">
+      <c r="BZ7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BV7" s="3"/>
-      <c r="BW7" s="3"/>
-    </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+    </row>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1669,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
@@ -1683,59 +1783,64 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
         <v>7</v>
       </c>
-      <c r="P8" s="3">
-        <v>2</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>7</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>7</v>
+      <c r="R8" s="3">
+        <v>2</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
       </c>
       <c r="AP8" s="3">
         <v>7</v>
       </c>
       <c r="AQ8" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS8" s="3">
         <v>7</v>
       </c>
       <c r="AT8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>7</v>
+      </c>
+      <c r="AW8" s="3">
         <v>4</v>
       </c>
-      <c r="BB8" s="3" t="s">
+      <c r="BE8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BG8" s="3">
+      <c r="BM8" s="3">
         <v>7</v>
       </c>
-      <c r="BL8" s="8">
+      <c r="BR8" s="8">
         <v>7</v>
       </c>
-      <c r="BM8" s="8"/>
-      <c r="BN8" s="3"/>
-      <c r="BO8" s="3"/>
-      <c r="BP8" s="3"/>
-      <c r="BQ8" s="3">
+      <c r="BS8" s="8"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3">
         <v>7</v>
       </c>
-      <c r="BR8" s="3" t="s">
+      <c r="BX8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="BS8" s="3">
+      <c r="BY8" s="3">
         <v>290</v>
       </c>
-      <c r="BT8" s="3" t="s">
+      <c r="BZ8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BV8" s="3"/>
-      <c r="BW8" s="3"/>
-    </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1752,10 +1857,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
         <v>8</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>14</v>
@@ -1766,53 +1871,55 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="AM9" s="3">
-        <v>8</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>8</v>
-      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="AP9" s="3">
         <v>8</v>
       </c>
       <c r="AQ9" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AS9" s="3">
         <v>8</v>
       </c>
       <c r="AT9" s="3">
+        <v>8</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>8</v>
+      </c>
+      <c r="AW9" s="3">
         <v>5</v>
       </c>
-      <c r="BB9" s="3" t="s">
+      <c r="BE9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BG9" s="3">
+      <c r="BM9" s="3">
         <v>8</v>
       </c>
-      <c r="BL9" s="8">
+      <c r="BR9" s="8">
         <v>8</v>
       </c>
-      <c r="BM9" s="8"/>
-      <c r="BN9" s="3"/>
-      <c r="BO9" s="3"/>
-      <c r="BP9" s="3"/>
-      <c r="BQ9" s="3">
+      <c r="BS9" s="8"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3">
         <v>8</v>
       </c>
-      <c r="BR9" s="3" t="s">
+      <c r="BX9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BS9" s="3">
+      <c r="BY9" s="3">
         <v>100</v>
       </c>
-      <c r="BT9" s="3" t="s">
+      <c r="BZ9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="BV9" s="3"/>
-      <c r="BW9" s="3"/>
-    </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+    </row>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1820,7 +1927,7 @@
         <v>45129</v>
       </c>
       <c r="C10" s="5">
-        <v>45229</v>
+        <v>45137</v>
       </c>
       <c r="D10" s="3">
         <v>5</v>
@@ -1829,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="F10" s="3">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3">
         <v>9</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>20</v>
@@ -1843,53 +1950,55 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="AM10" s="3">
-        <v>9</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>8</v>
-      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="AP10" s="3">
         <v>9</v>
       </c>
       <c r="AQ10" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AS10" s="3">
         <v>9</v>
       </c>
       <c r="AT10" s="3">
+        <v>9</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>9</v>
+      </c>
+      <c r="AW10" s="3">
         <v>5</v>
       </c>
-      <c r="BB10" s="3" t="s">
+      <c r="BE10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BG10" s="3">
+      <c r="BM10" s="3">
         <v>9</v>
       </c>
-      <c r="BL10" s="8">
+      <c r="BR10" s="8">
         <v>9</v>
       </c>
-      <c r="BM10" s="8"/>
-      <c r="BN10" s="3"/>
-      <c r="BO10" s="3"/>
-      <c r="BP10" s="3"/>
-      <c r="BQ10" s="3">
+      <c r="BS10" s="8"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3">
         <v>9</v>
       </c>
-      <c r="BR10" s="3" t="s">
+      <c r="BX10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BS10" s="3">
+      <c r="BY10" s="3">
         <v>300</v>
       </c>
-      <c r="BT10" s="3" t="s">
+      <c r="BZ10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BV10" s="3"/>
-      <c r="BW10" s="3"/>
-    </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB10" s="3"/>
+      <c r="CC10" s="3"/>
+    </row>
+    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1906,7 +2015,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
@@ -1920,53 +2029,55 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="AM11" s="3">
-        <v>10</v>
-      </c>
-      <c r="AN11" s="3">
-        <v>6</v>
-      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="AP11" s="3">
         <v>10</v>
       </c>
       <c r="AQ11" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AS11" s="3">
         <v>10</v>
       </c>
       <c r="AT11" s="3">
-        <v>3</v>
-      </c>
-      <c r="BB11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>3</v>
+      </c>
+      <c r="BE11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BG11" s="3">
+      <c r="BM11" s="3">
         <v>10</v>
       </c>
-      <c r="BL11" s="8">
+      <c r="BR11" s="8">
         <v>10</v>
       </c>
-      <c r="BM11" s="8"/>
-      <c r="BN11" s="3"/>
-      <c r="BO11" s="3"/>
-      <c r="BP11" s="3"/>
-      <c r="BQ11" s="3">
+      <c r="BS11" s="8"/>
+      <c r="BT11" s="3"/>
+      <c r="BU11" s="3"/>
+      <c r="BV11" s="3"/>
+      <c r="BW11" s="3">
         <v>10</v>
       </c>
-      <c r="BR11" s="3" t="s">
+      <c r="BX11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="BS11" s="3">
+      <c r="BY11" s="3">
         <v>50</v>
       </c>
-      <c r="BT11" s="3" t="s">
+      <c r="BZ11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BV11" s="3"/>
-      <c r="BW11" s="3"/>
-    </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
+    </row>
+    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1983,7 +2094,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
@@ -1997,50 +2108,52 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="AM12" s="3">
-        <v>11</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>3</v>
-      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
       <c r="AP12" s="3">
         <v>11</v>
       </c>
       <c r="AQ12" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AS12" s="3">
         <v>11</v>
       </c>
       <c r="AT12" s="3">
-        <v>2</v>
-      </c>
-      <c r="BB12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>11</v>
+      </c>
+      <c r="AW12" s="3">
+        <v>2</v>
+      </c>
+      <c r="BE12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BL12" s="8">
+      <c r="BR12" s="8">
         <v>11</v>
       </c>
-      <c r="BM12" s="8"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
-      <c r="BP12" s="3"/>
-      <c r="BQ12" s="3">
+      <c r="BS12" s="8"/>
+      <c r="BT12" s="3"/>
+      <c r="BU12" s="3"/>
+      <c r="BV12" s="3"/>
+      <c r="BW12" s="3">
         <v>11</v>
       </c>
-      <c r="BR12" s="3" t="s">
+      <c r="BX12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BS12" s="3">
+      <c r="BY12" s="3">
         <v>97</v>
       </c>
-      <c r="BT12" s="3" t="s">
+      <c r="BZ12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BV12" s="3"/>
-      <c r="BW12" s="3"/>
-    </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB12" s="3"/>
+      <c r="CC12" s="3"/>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2057,7 +2170,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
@@ -2071,50 +2184,48 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="AM13" s="3">
-        <v>12</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>12</v>
-      </c>
-      <c r="AP13" s="3">
-        <v>12</v>
-      </c>
-      <c r="AQ13" s="3">
-        <v>12</v>
-      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
       <c r="AS13" s="3">
         <v>12</v>
       </c>
       <c r="AT13" s="3">
-        <v>1</v>
-      </c>
-      <c r="BB13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>12</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BL13" s="8">
+      <c r="BR13" s="8">
         <v>12</v>
       </c>
-      <c r="BM13" s="8"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="3">
+      <c r="BS13" s="8"/>
+      <c r="BT13" s="3"/>
+      <c r="BU13" s="3"/>
+      <c r="BV13" s="3"/>
+      <c r="BW13" s="3">
         <v>12</v>
       </c>
-      <c r="BR13" s="3" t="s">
+      <c r="BX13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BS13" s="3">
+      <c r="BY13" s="3">
         <v>125</v>
       </c>
-      <c r="BT13" s="3" t="s">
+      <c r="BZ13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BV13" s="3"/>
-      <c r="BW13" s="3"/>
-    </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB13" s="3"/>
+      <c r="CC13" s="3"/>
+    </row>
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2131,52 +2242,57 @@
         <v>6</v>
       </c>
       <c r="F14" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
       </c>
-      <c r="AM14" s="3">
-        <v>13</v>
-      </c>
-      <c r="AN14" s="3">
-        <v>13</v>
-      </c>
-      <c r="AP14" s="3">
-        <v>13</v>
-      </c>
-      <c r="AQ14" s="3">
-        <v>13</v>
-      </c>
+      <c r="H14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
       <c r="AS14" s="3">
         <v>13</v>
       </c>
       <c r="AT14" s="3">
+        <v>13</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>13</v>
+      </c>
+      <c r="AW14" s="3">
         <v>6</v>
       </c>
-      <c r="BL14" s="8">
+      <c r="BE14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR14" s="8">
         <v>13</v>
       </c>
-      <c r="BM14" s="8"/>
-      <c r="BN14" s="3"/>
-      <c r="BO14" s="3"/>
-      <c r="BP14" s="3"/>
-      <c r="BQ14" s="3">
+      <c r="BS14" s="8"/>
+      <c r="BT14" s="3"/>
+      <c r="BU14" s="3"/>
+      <c r="BV14" s="3"/>
+      <c r="BW14" s="3">
         <v>13</v>
       </c>
-      <c r="BR14" s="3" t="s">
+      <c r="BX14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BS14" s="3">
+      <c r="BY14" s="3">
         <v>64</v>
       </c>
-      <c r="BT14" s="3" t="s">
+      <c r="BZ14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BV14" s="3"/>
-      <c r="BW14" s="3"/>
-    </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB14" s="3"/>
+      <c r="CC14" s="3"/>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2193,52 +2309,57 @@
         <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
         <v>14</v>
       </c>
-      <c r="AM15" s="3">
-        <v>14</v>
-      </c>
-      <c r="AN15" s="3">
-        <v>7</v>
-      </c>
-      <c r="AP15" s="3">
-        <v>14</v>
-      </c>
-      <c r="AQ15" s="3">
-        <v>14</v>
-      </c>
+      <c r="H15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
       <c r="AS15" s="3">
         <v>14</v>
       </c>
       <c r="AT15" s="3">
+        <v>14</v>
+      </c>
+      <c r="AV15" s="3">
+        <v>14</v>
+      </c>
+      <c r="AW15" s="3">
         <v>4</v>
       </c>
-      <c r="BL15" s="8">
+      <c r="BE15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR15" s="8">
         <v>14</v>
       </c>
-      <c r="BM15" s="8"/>
-      <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
-      <c r="BQ15" s="3">
+      <c r="BS15" s="8"/>
+      <c r="BT15" s="3"/>
+      <c r="BU15" s="3"/>
+      <c r="BV15" s="3"/>
+      <c r="BW15" s="3">
         <v>14</v>
       </c>
-      <c r="BR15" s="3" t="s">
+      <c r="BX15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BS15" s="3">
+      <c r="BY15" s="3">
         <v>33</v>
       </c>
-      <c r="BT15" s="3" t="s">
+      <c r="BZ15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BV15" s="3"/>
-      <c r="BW15" s="3"/>
-    </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.25">
+      <c r="CB15" s="3"/>
+      <c r="CC15" s="3"/>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2255,483 +2376,502 @@
         <v>6</v>
       </c>
       <c r="F16" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
       </c>
-      <c r="AM16" s="3">
-        <v>15</v>
-      </c>
-      <c r="AN16" s="3">
-        <v>15</v>
-      </c>
-      <c r="AP16" s="3">
-        <v>15</v>
-      </c>
-      <c r="AQ16" s="3">
-        <v>15</v>
-      </c>
+      <c r="H16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
       <c r="AS16" s="3">
         <v>15</v>
       </c>
       <c r="AT16" s="3">
+        <v>15</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>15</v>
+      </c>
+      <c r="AW16" s="3">
         <v>7</v>
       </c>
-      <c r="BL16" s="8">
+      <c r="BE16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR16" s="8">
         <v>15</v>
       </c>
-      <c r="BM16" s="8"/>
-      <c r="BN16" s="3"/>
-      <c r="BO16" s="3"/>
-      <c r="BP16" s="3"/>
-      <c r="BQ16" s="3">
+      <c r="BS16" s="8"/>
+      <c r="BT16" s="3"/>
+      <c r="BU16" s="3"/>
+      <c r="BV16" s="3"/>
+      <c r="BW16" s="3">
         <v>15</v>
       </c>
-      <c r="BR16" s="3" t="s">
+      <c r="BX16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BS16" s="3">
+      <c r="BY16" s="3">
         <v>81</v>
       </c>
-      <c r="BT16" s="3" t="s">
+      <c r="BZ16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BV16" s="3"/>
-      <c r="BW16" s="3"/>
-    </row>
-    <row r="17" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL17" s="8">
+      <c r="CB16" s="3"/>
+      <c r="CC16" s="3"/>
+    </row>
+    <row r="17" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP17" s="3"/>
+      <c r="BR17" s="8">
         <v>16</v>
       </c>
-      <c r="BM17" s="8"/>
-      <c r="BN17" s="3"/>
-      <c r="BO17" s="3"/>
-      <c r="BP17" s="3"/>
-      <c r="BQ17" s="3">
+      <c r="BS17" s="8"/>
+      <c r="BT17" s="3"/>
+      <c r="BU17" s="3"/>
+      <c r="BV17" s="3"/>
+      <c r="BW17" s="3">
         <v>16</v>
       </c>
-      <c r="BR17" s="3" t="s">
+      <c r="BX17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BS17" s="3">
+      <c r="BY17" s="3">
         <v>49</v>
       </c>
-      <c r="BT17" s="3" t="s">
+      <c r="BZ17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BV17" s="3"/>
-      <c r="BW17" s="3"/>
-    </row>
-    <row r="18" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL18" s="8">
+      <c r="CB17" s="3"/>
+      <c r="CC17" s="3"/>
+    </row>
+    <row r="18" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP18" s="3"/>
+      <c r="BR18" s="8">
         <v>17</v>
       </c>
-      <c r="BM18" s="8"/>
-      <c r="BN18" s="3"/>
-      <c r="BO18" s="3"/>
-      <c r="BP18" s="3"/>
-      <c r="BQ18" s="3">
+      <c r="BS18" s="8"/>
+      <c r="BT18" s="3"/>
+      <c r="BU18" s="3"/>
+      <c r="BV18" s="3"/>
+      <c r="BW18" s="3">
         <v>17</v>
       </c>
-      <c r="BR18" s="3" t="s">
+      <c r="BX18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BS18" s="3">
+      <c r="BY18" s="3">
         <v>20</v>
       </c>
-      <c r="BT18" s="3" t="s">
+      <c r="BZ18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BV18" s="3"/>
-      <c r="BW18" s="3"/>
-    </row>
-    <row r="19" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL19" s="8">
+      <c r="CB18" s="3"/>
+      <c r="CC18" s="3"/>
+    </row>
+    <row r="19" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP19" s="3"/>
+      <c r="BR19" s="8">
         <v>18</v>
       </c>
-      <c r="BM19" s="8"/>
-      <c r="BN19" s="3"/>
-      <c r="BO19" s="3"/>
-      <c r="BP19" s="3"/>
-      <c r="BQ19" s="3">
+      <c r="BS19" s="8"/>
+      <c r="BT19" s="3"/>
+      <c r="BU19" s="3"/>
+      <c r="BV19" s="3"/>
+      <c r="BW19" s="3">
         <v>18</v>
       </c>
-      <c r="BR19" s="3" t="s">
+      <c r="BX19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="BS19" s="3">
+      <c r="BY19" s="3">
         <v>40</v>
       </c>
-      <c r="BT19" s="3" t="s">
+      <c r="BZ19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BV19" s="3"/>
-      <c r="BW19" s="3"/>
-    </row>
-    <row r="20" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL20" s="8">
+      <c r="CB19" s="3"/>
+      <c r="CC19" s="3"/>
+    </row>
+    <row r="20" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP20" s="3"/>
+      <c r="BR20" s="8">
         <v>19</v>
       </c>
-      <c r="BM20" s="8"/>
-      <c r="BN20" s="3"/>
-      <c r="BO20" s="3"/>
-      <c r="BP20" s="3"/>
-      <c r="BQ20" s="3">
+      <c r="BS20" s="8"/>
+      <c r="BT20" s="3"/>
+      <c r="BU20" s="3"/>
+      <c r="BV20" s="3"/>
+      <c r="BW20" s="3">
         <v>19</v>
       </c>
-      <c r="BR20" s="3" t="s">
+      <c r="BX20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BS20" s="3">
+      <c r="BY20" s="3">
         <v>8</v>
       </c>
-      <c r="BT20" s="3" t="s">
+      <c r="BZ20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BV20" s="3"/>
-      <c r="BW20" s="3"/>
-    </row>
-    <row r="21" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL21" s="8">
+      <c r="CB20" s="3"/>
+      <c r="CC20" s="3"/>
+    </row>
+    <row r="21" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP21" s="3"/>
+      <c r="BR21" s="8">
         <v>20</v>
       </c>
-      <c r="BM21" s="9"/>
-      <c r="BN21" s="3"/>
-      <c r="BO21" s="3"/>
-      <c r="BP21" s="3"/>
-      <c r="BQ21" s="3">
+      <c r="BS21" s="9"/>
+      <c r="BT21" s="3"/>
+      <c r="BU21" s="3"/>
+      <c r="BV21" s="3"/>
+      <c r="BW21" s="3">
         <v>20</v>
       </c>
-      <c r="BR21" s="3" t="s">
+      <c r="BX21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="BS21" s="3">
+      <c r="BY21" s="3">
         <v>100</v>
       </c>
-      <c r="BT21" s="3" t="s">
+      <c r="BZ21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BV21" s="3"/>
-      <c r="BW21" s="3"/>
-    </row>
-    <row r="22" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL22" s="8">
+      <c r="CB21" s="3"/>
+      <c r="CC21" s="3"/>
+    </row>
+    <row r="22" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP22" s="3"/>
+      <c r="BR22" s="8">
         <v>21</v>
       </c>
-      <c r="BM22" s="9"/>
-      <c r="BN22" s="3"/>
-      <c r="BO22" s="3"/>
-      <c r="BP22" s="3"/>
-      <c r="BQ22" s="3">
+      <c r="BS22" s="9"/>
+      <c r="BT22" s="3"/>
+      <c r="BU22" s="3"/>
+      <c r="BV22" s="3"/>
+      <c r="BW22" s="3">
         <v>21</v>
       </c>
-      <c r="BR22" s="3" t="s">
+      <c r="BX22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="BS22" s="3">
+      <c r="BY22" s="3">
         <v>210</v>
       </c>
-      <c r="BT22" s="3" t="s">
+      <c r="BZ22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BV22" s="3"/>
-      <c r="BW22" s="3"/>
-    </row>
-    <row r="23" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL23" s="8">
+      <c r="CB22" s="3"/>
+      <c r="CC22" s="3"/>
+    </row>
+    <row r="23" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP23" s="3"/>
+      <c r="BR23" s="8">
         <v>22</v>
       </c>
-      <c r="BM23" s="9"/>
-      <c r="BN23" s="3"/>
-      <c r="BO23" s="3"/>
-      <c r="BP23" s="3"/>
-      <c r="BQ23" s="3">
+      <c r="BS23" s="9"/>
+      <c r="BT23" s="3"/>
+      <c r="BU23" s="3"/>
+      <c r="BV23" s="3"/>
+      <c r="BW23" s="3">
         <v>22</v>
       </c>
-      <c r="BR23" s="3" t="s">
+      <c r="BX23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="BS23" s="3">
+      <c r="BY23" s="3">
         <v>156</v>
       </c>
-      <c r="BT23" s="3" t="s">
+      <c r="BZ23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BV23" s="3"/>
-      <c r="BW23" s="3"/>
-    </row>
-    <row r="24" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL24" s="8">
+      <c r="CB23" s="3"/>
+      <c r="CC23" s="3"/>
+    </row>
+    <row r="24" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP24" s="3"/>
+      <c r="BR24" s="8">
         <v>23</v>
       </c>
-      <c r="BM24" s="9"/>
-      <c r="BN24" s="3"/>
-      <c r="BO24" s="3"/>
-      <c r="BP24" s="3"/>
-      <c r="BQ24" s="3">
+      <c r="BS24" s="9"/>
+      <c r="BT24" s="3"/>
+      <c r="BU24" s="3"/>
+      <c r="BV24" s="3"/>
+      <c r="BW24" s="3">
         <v>23</v>
       </c>
-      <c r="BR24" s="3" t="s">
+      <c r="BX24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="BS24" s="3">
+      <c r="BY24" s="3">
         <v>180</v>
       </c>
-      <c r="BT24" s="3" t="s">
+      <c r="BZ24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BV24" s="3"/>
-      <c r="BW24" s="3"/>
-    </row>
-    <row r="25" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL25" s="8">
+      <c r="CB24" s="3"/>
+      <c r="CC24" s="3"/>
+    </row>
+    <row r="25" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP25" s="3"/>
+      <c r="BR25" s="8">
         <v>24</v>
       </c>
-      <c r="BM25" s="9"/>
-      <c r="BN25" s="3"/>
-      <c r="BO25" s="3"/>
-      <c r="BP25" s="3"/>
-      <c r="BQ25" s="3"/>
-      <c r="BR25" s="3"/>
-      <c r="BS25" s="3"/>
+      <c r="BS25" s="9"/>
+      <c r="BT25" s="3"/>
+      <c r="BU25" s="3"/>
       <c r="BV25" s="3"/>
       <c r="BW25" s="3"/>
-    </row>
-    <row r="26" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL26" s="8">
+      <c r="BX25" s="3"/>
+      <c r="BY25" s="3"/>
+      <c r="CB25" s="3"/>
+      <c r="CC25" s="3"/>
+    </row>
+    <row r="26" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP26" s="3"/>
+      <c r="BR26" s="8">
         <v>25</v>
       </c>
-      <c r="BM26" s="9"/>
-      <c r="BN26" s="3"/>
-      <c r="BO26" s="3"/>
-      <c r="BP26" s="3"/>
-      <c r="BQ26" s="3"/>
-      <c r="BR26" s="3"/>
-      <c r="BS26" s="3"/>
+      <c r="BS26" s="9"/>
+      <c r="BT26" s="3"/>
+      <c r="BU26" s="3"/>
       <c r="BV26" s="3"/>
       <c r="BW26" s="3"/>
-    </row>
-    <row r="27" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL27" s="8">
+      <c r="BX26" s="3"/>
+      <c r="BY26" s="3"/>
+      <c r="CB26" s="3"/>
+      <c r="CC26" s="3"/>
+    </row>
+    <row r="27" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP27" s="3"/>
+      <c r="BR27" s="8">
         <v>26</v>
       </c>
-      <c r="BM27" s="9"/>
-    </row>
-    <row r="28" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL28" s="8">
+      <c r="BS27" s="9"/>
+    </row>
+    <row r="28" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP28" s="3"/>
+      <c r="BR28" s="8">
         <v>27</v>
       </c>
-      <c r="BM28" s="9"/>
-    </row>
-    <row r="29" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL29" s="8">
+      <c r="BS28" s="9"/>
+    </row>
+    <row r="29" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP29" s="3"/>
+      <c r="BR29" s="8">
         <v>28</v>
       </c>
-      <c r="BM29" s="9"/>
-    </row>
-    <row r="30" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL30" s="8">
+      <c r="BS29" s="9"/>
+    </row>
+    <row r="30" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="AP30" s="3"/>
+      <c r="BR30" s="8">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL31" s="8">
+    <row r="31" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="BR31" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="64:75" x14ac:dyDescent="0.25">
-      <c r="BL32" s="8">
+    <row r="32" spans="42:81" x14ac:dyDescent="0.25">
+      <c r="BR32" s="8">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL33" s="8">
+    <row r="33" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR33" s="8">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL34" s="8">
+    <row r="34" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR34" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL35" s="8">
+    <row r="35" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR35" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL36" s="8">
+    <row r="36" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR36" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL37" s="8">
+    <row r="37" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR37" s="8">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL38" s="8">
+    <row r="38" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR38" s="8">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL39" s="8">
+    <row r="39" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR39" s="8">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL40" s="8">
+    <row r="40" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR40" s="8">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL41" s="8">
+    <row r="41" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR41" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL42" s="8">
+    <row r="42" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR42" s="8">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL43" s="8">
+    <row r="43" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR43" s="8">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL44" s="8">
+    <row r="44" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR44" s="8">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL45" s="8">
+    <row r="45" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR45" s="8">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL46" s="8">
+    <row r="46" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR46" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL47" s="8">
+    <row r="47" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR47" s="8">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL48" s="8">
+    <row r="48" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR48" s="8">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL49" s="8">
+    <row r="49" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR49" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL50" s="8">
+    <row r="50" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR50" s="8">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL51" s="8">
+    <row r="51" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR51" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL52" s="8">
+    <row r="52" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR52" s="8">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL53" s="8">
+    <row r="53" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR53" s="8">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL54" s="8">
+    <row r="54" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR54" s="8">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL55" s="8">
+    <row r="55" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR55" s="8">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL56" s="8">
+    <row r="56" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR56" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL57" s="8">
+    <row r="57" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR57" s="8">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL58" s="8">
+    <row r="58" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR58" s="8">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL59" s="8">
+    <row r="59" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR59" s="8">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL60" s="8">
+    <row r="60" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR60" s="8">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL61" s="8">
+    <row r="61" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR61" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL62" s="8">
+    <row r="62" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR62" s="8">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL63" s="8">
+    <row r="63" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR63" s="8">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL64" s="8">
+    <row r="64" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR64" s="8">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL65" s="8">
+    <row r="65" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR65" s="8">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL66" s="8">
+    <row r="66" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR66" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL67" s="8">
+    <row r="67" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR67" s="8">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL68" s="8">
+    <row r="68" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR68" s="8">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL69" s="8">
+    <row r="69" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR69" s="8">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="64:64" x14ac:dyDescent="0.25">
-      <c r="BL70" s="8">
+    <row r="70" spans="70:70" x14ac:dyDescent="0.25">
+      <c r="BR70" s="8">
         <v>69</v>
       </c>
     </row>
@@ -2739,4 +2879,1160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AAF824-E4FB-41CD-A54F-B4AF61A79217}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D046A7EE-9E78-400D-B826-EF316EB4A49C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D498ED-FA02-46E8-AA0E-97BC7973DFE6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9431D8-C65B-4CC0-ACF9-C8E9EB096849}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DC7ACD-FC64-4F67-A345-068C796D8C96}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9A931F-3F59-4AE5-B86E-793C6331BF7A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1869E9C8-C3FB-42FC-8182-134220E54CDA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A9F2BF-1D3B-4543-B93E-D690A5A22873}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="70.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45119</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45119</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45122</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45127</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45123</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45123</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45123</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45123</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45123</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45153</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45125</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45283</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45125</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45125</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45128</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45128</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45129</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45137</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45130</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45235</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45131</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45131</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45131</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45239</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45136</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45228</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45137</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45137</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>14</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45137</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45139</v>
+      </c>
+      <c r="D16" s="3">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
+        <v>11</v>
+      </c>
+      <c r="G16" s="3">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C65D2BA-0BF5-4F1B-BBC3-2CB4A84C87CC}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="M6" s="10">
+        <v>45128.454039351855</v>
+      </c>
+      <c r="N6" s="10">
+        <v>45149.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB5305A-09FD-4B31-8EDA-3F86247A4B08}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2F0DD1-3F21-45CC-B12E-C92C6F8EAE08}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEFF041-7269-4DBD-A295-0FA555E6B60A}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129CDE4B-0030-4912-ABAE-BBAB06E27CAF}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D5A9D0-7209-4963-A09F-FC3B99680A01}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76ECD07C-A4DC-412C-A13C-7035BF0DCD52}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>